--- a/软件修改履历.xlsx
+++ b/软件修改履历.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19879\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D33A49-6B9D-4A6E-9458-EAF19AEC3B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9AF801-6499-496A-AFC9-7492AC9ADA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>软件版本：V1.0.2                                                             1、添加模拟iic模块驱动层及抽象层                                2、添加eeprom（24c02）驱动                                       3、优化drv_timer.c，drv_adc.c(中断函数中if…elseif…,结构更换成单if)                                                                   4、hal_timer.c，hal_timer.h(增加频率计)                         5、修改了platform_config文件（增加版本信息）            6、增加几个测试demo                                                   7、修改了test文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加CRC,spi,片外flash，片内flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加crc算法                                                                           2、增加spi驱动层及抽象层                                                  3、增加片内flash驱动层及抽象层                                    4、增加片外flash（w26q64）驱动                                   5、更新hal.c/h                                                                    6、更新headers.h                                                             7、更新paltform_config.h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,7 +490,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -584,16 +596,34 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+    <row r="4" spans="1:10" ht="98" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43987</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6">
+        <v>43994</v>
+      </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
